--- a/第4章excel/excel资料/第4章/课堂文件/课堂文件-迷你图.xlsx
+++ b/第4章excel/excel资料/第4章/课堂文件/课堂文件-迷你图.xlsx
@@ -295,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -316,6 +316,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,10 +625,15 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -699,7 +707,7 @@
       <c r="I2" s="5">
         <v>78</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="7"/>
       <c r="L2" s="2" t="s">
         <v>13</v>
@@ -1494,6 +1502,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/第4章excel/excel资料/第4章/课堂文件/课堂文件-迷你图.xlsx
+++ b/第4章excel/excel资料/第4章/课堂文件/课堂文件-迷你图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
   <si>
     <t>编号</t>
   </si>
@@ -333,6 +333,206 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41637489063867017"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>黄凯东</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>一测</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>二测</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>半期</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>三测</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>四测</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>期末</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="156781184"/>
+        <c:axId val="156844416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="156781184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156844416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="156844416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="59"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156781184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1508,14 +1708,797 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5">
+        <v>90</v>
+      </c>
+      <c r="E2" s="5">
+        <v>89</v>
+      </c>
+      <c r="F2" s="5">
+        <v>62</v>
+      </c>
+      <c r="G2" s="5">
+        <v>83</v>
+      </c>
+      <c r="H2" s="5">
+        <v>68</v>
+      </c>
+      <c r="I2" s="5">
+        <v>78</v>
+      </c>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>61</v>
+      </c>
+      <c r="E3" s="5">
+        <v>75</v>
+      </c>
+      <c r="F3" s="5">
+        <v>93</v>
+      </c>
+      <c r="G3" s="5">
+        <v>87</v>
+      </c>
+      <c r="H3" s="5">
+        <v>87</v>
+      </c>
+      <c r="I3" s="5">
+        <v>78</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5">
+        <v>82</v>
+      </c>
+      <c r="E4" s="5">
+        <v>82</v>
+      </c>
+      <c r="F4" s="5">
+        <v>85</v>
+      </c>
+      <c r="G4" s="5">
+        <v>65</v>
+      </c>
+      <c r="H4" s="5">
+        <v>75</v>
+      </c>
+      <c r="I4" s="5">
+        <v>98</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5">
+        <v>55</v>
+      </c>
+      <c r="E5" s="5">
+        <v>64</v>
+      </c>
+      <c r="F5" s="5">
+        <v>90</v>
+      </c>
+      <c r="G5" s="5">
+        <v>64</v>
+      </c>
+      <c r="H5" s="5">
+        <v>70</v>
+      </c>
+      <c r="I5" s="5">
+        <v>82</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5">
+        <v>92</v>
+      </c>
+      <c r="E6" s="5">
+        <v>93</v>
+      </c>
+      <c r="F6" s="5">
+        <v>82</v>
+      </c>
+      <c r="G6" s="5">
+        <v>97</v>
+      </c>
+      <c r="H6" s="5">
+        <v>67</v>
+      </c>
+      <c r="I6" s="5">
+        <v>80</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5">
+        <v>91</v>
+      </c>
+      <c r="E7" s="5">
+        <v>59</v>
+      </c>
+      <c r="F7" s="5">
+        <v>69</v>
+      </c>
+      <c r="G7" s="5">
+        <v>84</v>
+      </c>
+      <c r="H7" s="5">
+        <v>100</v>
+      </c>
+      <c r="I7" s="5">
+        <v>75</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>76</v>
+      </c>
+      <c r="E8" s="5">
+        <v>84</v>
+      </c>
+      <c r="F8" s="5">
+        <v>96</v>
+      </c>
+      <c r="G8" s="5">
+        <v>74</v>
+      </c>
+      <c r="H8" s="5">
+        <v>76</v>
+      </c>
+      <c r="I8" s="5">
+        <v>65</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5">
+        <v>88</v>
+      </c>
+      <c r="E9" s="5">
+        <v>87</v>
+      </c>
+      <c r="F9" s="5">
+        <v>80</v>
+      </c>
+      <c r="G9" s="5">
+        <v>87</v>
+      </c>
+      <c r="H9" s="5">
+        <v>86</v>
+      </c>
+      <c r="I9" s="5">
+        <v>95</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5">
+        <v>56</v>
+      </c>
+      <c r="E10" s="5">
+        <v>80</v>
+      </c>
+      <c r="F10" s="5">
+        <v>69</v>
+      </c>
+      <c r="G10" s="5">
+        <v>74</v>
+      </c>
+      <c r="H10" s="5">
+        <v>81</v>
+      </c>
+      <c r="I10" s="5">
+        <v>100</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5">
+        <v>96</v>
+      </c>
+      <c r="E11" s="5">
+        <v>100</v>
+      </c>
+      <c r="F11" s="5">
+        <v>91</v>
+      </c>
+      <c r="G11" s="5">
+        <v>76</v>
+      </c>
+      <c r="H11" s="5">
+        <v>73</v>
+      </c>
+      <c r="I11" s="5">
+        <v>95</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5">
+        <v>71</v>
+      </c>
+      <c r="E12" s="5">
+        <v>94</v>
+      </c>
+      <c r="F12" s="5">
+        <v>97</v>
+      </c>
+      <c r="G12" s="5">
+        <v>84</v>
+      </c>
+      <c r="H12" s="5">
+        <v>86</v>
+      </c>
+      <c r="I12" s="5">
+        <v>92</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5">
+        <v>97</v>
+      </c>
+      <c r="E13" s="5">
+        <v>68</v>
+      </c>
+      <c r="F13" s="5">
+        <v>98</v>
+      </c>
+      <c r="G13" s="5">
+        <v>82</v>
+      </c>
+      <c r="H13" s="5">
+        <v>63</v>
+      </c>
+      <c r="I13" s="5">
+        <v>72</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5">
+        <v>74</v>
+      </c>
+      <c r="E14" s="5">
+        <v>96</v>
+      </c>
+      <c r="F14" s="5">
+        <v>62</v>
+      </c>
+      <c r="G14" s="5">
+        <v>68</v>
+      </c>
+      <c r="H14" s="5">
+        <v>100</v>
+      </c>
+      <c r="I14" s="5">
+        <v>72</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5">
+        <v>76</v>
+      </c>
+      <c r="E15" s="5">
+        <v>63</v>
+      </c>
+      <c r="F15" s="5">
+        <v>72</v>
+      </c>
+      <c r="G15" s="5">
+        <v>89</v>
+      </c>
+      <c r="H15" s="5">
+        <v>90</v>
+      </c>
+      <c r="I15" s="5">
+        <v>78</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5">
+        <v>75</v>
+      </c>
+      <c r="E16" s="5">
+        <v>55</v>
+      </c>
+      <c r="F16" s="5">
+        <v>96</v>
+      </c>
+      <c r="G16" s="5">
+        <v>82</v>
+      </c>
+      <c r="H16" s="5">
+        <v>58</v>
+      </c>
+      <c r="I16" s="5">
+        <v>93</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5">
+        <v>66</v>
+      </c>
+      <c r="E17" s="5">
+        <v>64</v>
+      </c>
+      <c r="F17" s="5">
+        <v>59</v>
+      </c>
+      <c r="G17" s="5">
+        <v>85</v>
+      </c>
+      <c r="H17" s="5">
+        <v>75</v>
+      </c>
+      <c r="I17" s="5">
+        <v>64</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5">
+        <v>98</v>
+      </c>
+      <c r="E18" s="5">
+        <v>65</v>
+      </c>
+      <c r="F18" s="5">
+        <v>72</v>
+      </c>
+      <c r="G18" s="5">
+        <v>86</v>
+      </c>
+      <c r="H18" s="5">
+        <v>59</v>
+      </c>
+      <c r="I18" s="5">
+        <v>62</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5">
+        <v>79</v>
+      </c>
+      <c r="E19" s="5">
+        <v>71</v>
+      </c>
+      <c r="F19" s="5">
+        <v>83</v>
+      </c>
+      <c r="G19" s="5">
+        <v>97</v>
+      </c>
+      <c r="H19" s="5">
+        <v>62</v>
+      </c>
+      <c r="I19" s="5">
+        <v>59</v>
+      </c>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5">
+        <v>100</v>
+      </c>
+      <c r="E20" s="5">
+        <v>91</v>
+      </c>
+      <c r="F20" s="5">
+        <v>66</v>
+      </c>
+      <c r="G20" s="5">
+        <v>59</v>
+      </c>
+      <c r="H20" s="5">
+        <v>97</v>
+      </c>
+      <c r="I20" s="5">
+        <v>94</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5">
+        <v>76</v>
+      </c>
+      <c r="E21" s="5">
+        <v>65</v>
+      </c>
+      <c r="F21" s="5">
+        <v>61</v>
+      </c>
+      <c r="G21" s="5">
+        <v>68</v>
+      </c>
+      <c r="H21" s="5">
+        <v>65</v>
+      </c>
+      <c r="I21" s="5">
+        <v>56</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5">
+        <v>91</v>
+      </c>
+      <c r="C26" s="5">
+        <v>59</v>
+      </c>
+      <c r="D26" s="5">
+        <v>69</v>
+      </c>
+      <c r="E26" s="5">
+        <v>84</v>
+      </c>
+      <c r="F26" s="5">
+        <v>100</v>
+      </c>
+      <c r="G26" s="5">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet2!D2:I2</xm:f>
+              <xm:sqref>J2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D3:I3</xm:f>
+              <xm:sqref>J3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D4:I4</xm:f>
+              <xm:sqref>J4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D5:I5</xm:f>
+              <xm:sqref>J5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D6:I6</xm:f>
+              <xm:sqref>J6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D7:I7</xm:f>
+              <xm:sqref>J7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D8:I8</xm:f>
+              <xm:sqref>J8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D9:I9</xm:f>
+              <xm:sqref>J9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D10:I10</xm:f>
+              <xm:sqref>J10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D11:I11</xm:f>
+              <xm:sqref>J11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D12:I12</xm:f>
+              <xm:sqref>J12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D13:I13</xm:f>
+              <xm:sqref>J13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D14:I14</xm:f>
+              <xm:sqref>J14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D15:I15</xm:f>
+              <xm:sqref>J15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D16:I16</xm:f>
+              <xm:sqref>J16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D17:I17</xm:f>
+              <xm:sqref>J17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D18:I18</xm:f>
+              <xm:sqref>J18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D19:I19</xm:f>
+              <xm:sqref>J19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D20:I20</xm:f>
+              <xm:sqref>J20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D21:I21</xm:f>
+              <xm:sqref>J21</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/第4章excel/excel资料/第4章/课堂文件/课堂文件-迷你图.xlsx
+++ b/第4章excel/excel资料/第4章/课堂文件/课堂文件-迷你图.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
   <si>
     <t>编号</t>
   </si>
@@ -333,206 +333,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.41637489063867017"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>黄凯东</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$D$1:$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>一测</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>二测</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>半期</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>三测</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>四测</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>期末</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$D$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="156781184"/>
-        <c:axId val="156844416"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="156781184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156844416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="156844416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="59"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156781184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1708,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2351,61 +2151,14 @@
       </c>
       <c r="J21" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="5">
-        <v>91</v>
-      </c>
-      <c r="C26" s="5">
-        <v>59</v>
-      </c>
-      <c r="D26" s="5">
-        <v>69</v>
-      </c>
-      <c r="E26" s="5">
-        <v>84</v>
-      </c>
-      <c r="F26" s="5">
-        <v>100</v>
-      </c>
-      <c r="G26" s="5">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
         <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
-          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorSeries rgb="FFFF0000"/>
           <x14:colorNegative theme="5"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
@@ -2417,6 +2170,10 @@
             <x14:sparkline>
               <xm:f>Sheet2!D2:I2</xm:f>
               <xm:sqref>J2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!D12:I12</xm:f>
+              <xm:sqref>J12</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Sheet2!D3:I3</xm:f>
@@ -2453,10 +2210,6 @@
             <x14:sparkline>
               <xm:f>Sheet2!D11:I11</xm:f>
               <xm:sqref>J11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet2!D12:I12</xm:f>
-              <xm:sqref>J12</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>Sheet2!D13:I13</xm:f>
